--- a/data/income_statement/2digits/size/74_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/74_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>74-Other professional, scientific and technical activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>74-Other professional, scientific and technical activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,836 +841,946 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>273183.83909</v>
+        <v>266767.52977</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>306048.15578</v>
+        <v>301818.02464</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>428297.0867</v>
+        <v>416212.66763</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>575847.35601</v>
+        <v>557578.57223</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>824136.40727</v>
+        <v>800333.45592</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1274310.35837</v>
+        <v>1265508.9836</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1719320.87117</v>
+        <v>1710456.03224</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2212893.87412</v>
+        <v>2184478.91892</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>2683892.80918</v>
+        <v>2694131.65654</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2399469.38404</v>
+        <v>2369624.89546</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>2736752.43267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2799149.45349</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3482114.046</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>227929.27787</v>
+        <v>220899.70206</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>270253.19434</v>
+        <v>263914.8009</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>370802.04855</v>
+        <v>359068.86759</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>510072.83422</v>
+        <v>488837.05336</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>738604.22454</v>
+        <v>714187.4026800001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1160592.23835</v>
+        <v>1141312.55197</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1532854.12015</v>
+        <v>1527227.58261</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2005910.75303</v>
+        <v>1970777.66193</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>2422571.09764</v>
+        <v>2419063.48463</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2078796.24573</v>
+        <v>2046952.92576</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>2300834.58741</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2347449.66101</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>2954636.788</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>35636.52967</v>
+        <v>36844.3127</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>28541.52864</v>
+        <v>31149.3136</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>46332.3478</v>
+        <v>47231.68985</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>59188.92979000001</v>
+        <v>62902.53854000001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>71685.41535</v>
+        <v>73204.50274000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>77269.94299</v>
+        <v>89053.66605</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>152405.67929</v>
+        <v>150295.85528</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>156963.86671</v>
+        <v>165806.96987</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>196206.97546</v>
+        <v>209484.88767</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>264944.85707</v>
+        <v>268377.38462</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>369553.84055</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>385426.9365499999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>448796.81</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>9618.03155</v>
+        <v>9023.515009999999</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>7253.4328</v>
+        <v>6753.910140000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>11162.69035</v>
+        <v>9912.110190000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>6585.592</v>
+        <v>5838.98033</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>13846.76738</v>
+        <v>12941.5505</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>36448.17703</v>
+        <v>35142.76558</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>34061.07173</v>
+        <v>32932.59435</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>50019.25438000001</v>
+        <v>47894.28712</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>65114.73608</v>
+        <v>65583.28423999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>55728.28124</v>
+        <v>54294.58508</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>66364.00471000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>66272.85593000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>78680.448</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1192.30155</v>
+        <v>1101.90002</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2515.65538</v>
+        <v>2288.46896</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>2757.24055</v>
+        <v>2747.26973</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>4776.94053</v>
+        <v>5002.15264</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>4781.94156</v>
+        <v>4576.4718</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>6210.77223</v>
+        <v>6183.73842</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>15377.63695</v>
+        <v>15247.58967</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>12669.1988</v>
+        <v>11881.80444</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>12476.72478</v>
+        <v>14863.4019</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>22356.45705</v>
+        <v>21944.14995</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>32482.87656</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34219.05179</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>44115.821</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1008.63796</v>
+        <v>897.5605599999999</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2209.15933</v>
+        <v>1996.42802</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1850.24566</v>
+        <v>1839.15636</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>4031.30128</v>
+        <v>4268.10721</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4027.56297</v>
+        <v>3821.38295</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>5247.87118</v>
+        <v>5213.02851</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>9475.320810000001</v>
+        <v>9302.003190000001</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>9653.338400000001</v>
+        <v>8920.751279999999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>10453.47842</v>
+        <v>12993.65674</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>20856.6972</v>
+        <v>20444.3901</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>31404.43016</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>33151.35135</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>38374.601</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>163.0858</v>
+        <v>158.8495</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>225.74843</v>
+        <v>197.50563</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>733.22055</v>
+        <v>732.6205500000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>484.5318</v>
+        <v>444.75623</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>414.69276</v>
+        <v>415.12199</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>566.45172</v>
+        <v>556.1542000000001</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>5396.69866</v>
+        <v>5397.4647</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1328.0783</v>
+        <v>1296.62102</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1156.70676</v>
+        <v>1166.64397</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>989.0958799999999</v>
+        <v>989.09588</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>642.3141900000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>618.74123</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>4960.679</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>20.57779</v>
+        <v>45.48996</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>80.74762</v>
+        <v>94.53531</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>173.77434</v>
+        <v>175.49282</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>261.10745</v>
+        <v>289.2892</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>339.68583</v>
+        <v>339.96686</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>396.44933</v>
+        <v>414.55571</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>505.61748</v>
+        <v>548.1217800000001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1687.7821</v>
+        <v>1664.43214</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>866.5396000000001</v>
+        <v>703.10119</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>510.6639699999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>436.13221</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>448.95921</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>780.5410000000001</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>271991.53754</v>
+        <v>265665.62975</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>303532.5004</v>
+        <v>299529.55568</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>425539.84615</v>
+        <v>413465.3979</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>571070.41548</v>
+        <v>552576.4195900001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>819354.46571</v>
+        <v>795756.98412</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1268099.58614</v>
+        <v>1259325.24518</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1703943.23422</v>
+        <v>1695208.44257</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2200224.67532</v>
+        <v>2172597.11448</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>2671416.0844</v>
+        <v>2679268.25464</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2377112.92699</v>
+        <v>2347680.74551</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>2704269.55611</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2764930.4017</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3437998.225</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>198315.64768</v>
+        <v>201333.38917</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>226522.78376</v>
+        <v>224755.45857</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>317617.24706</v>
+        <v>309588.02456</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>429281.42864</v>
+        <v>415093.5306</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>573024.61464</v>
+        <v>558506.60291</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>843156.86917</v>
+        <v>843771.28874</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1186595.69641</v>
+        <v>1181944.87973</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1542410.38983</v>
+        <v>1524648.43731</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1929358.042</v>
+        <v>1923761.64004</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1607352.49562</v>
+        <v>1592473.46524</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>1923090.96766</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1977464.44805</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2485753.953</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>14381.58985</v>
+        <v>15531.39934</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>19188.58906</v>
+        <v>17437.00001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>32713.01644</v>
+        <v>31395.40173</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>44124.80965</v>
+        <v>39603.2443</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>56186.8231</v>
+        <v>52238.47778</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>79801.3983</v>
+        <v>72875.54721999999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>163055.33725</v>
+        <v>156685.99806</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>135599.49311</v>
+        <v>128529.56019</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>146385.37068</v>
+        <v>140853.71608</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>99803.11037000001</v>
+        <v>94365.63924</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>121592.62437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>130361.85924</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>223459.916</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>52829.87099</v>
+        <v>54660.60194</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>64032.47147999999</v>
+        <v>64583.75133</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>97513.72730000001</v>
+        <v>94145.13890000001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>107267.6863</v>
+        <v>103254.6409</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>127835.6698</v>
+        <v>127351.19296</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>149225.77503</v>
+        <v>156389.92684</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>220500.86039</v>
+        <v>233833.18875</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>479440.97111</v>
+        <v>474554.21359</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>375441.36667</v>
+        <v>377441.6819</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>247438.89488</v>
+        <v>239626.9681</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>385043.27617</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>426907.64896</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>750688.352</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>129828.50091</v>
+        <v>129988.0057</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>142847.73739</v>
+        <v>142507.18083</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>186670.10375</v>
+        <v>182908.15917</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>277565.54049</v>
+        <v>271887.37503</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>387666.35563</v>
+        <v>377553.79744</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>611982.5690199999</v>
+        <v>612463.85526</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>799341.43417</v>
+        <v>788333.21675</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>915517.9784500001</v>
+        <v>910608.0397999999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1400721.12416</v>
+        <v>1398861.27281</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1251019.65926</v>
+        <v>1250709.56219</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1404105.30929</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1408232.34647</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1499340.151</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1275.68593</v>
+        <v>1153.38219</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>453.98583</v>
+        <v>227.5264</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>720.3995699999999</v>
+        <v>1139.32476</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>323.3922</v>
+        <v>348.27037</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1335.76611</v>
+        <v>1363.13473</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>2147.12682</v>
+        <v>2041.95942</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>3698.0646</v>
+        <v>3092.47617</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>11851.94716</v>
+        <v>10956.62373</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>6810.180490000001</v>
+        <v>6604.96925</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>9090.831109999999</v>
+        <v>7771.295710000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>12349.75783</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>11962.59338</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>12265.534</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>73675.88986</v>
+        <v>64332.24058</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>77009.71664</v>
+        <v>74774.09711</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>107922.59909</v>
+        <v>103877.37334</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>141788.98684</v>
+        <v>137482.88899</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>246329.85107</v>
+        <v>237250.38121</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>424942.71697</v>
+        <v>415553.9564399999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>517347.53781</v>
+        <v>513263.56284</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>657814.28549</v>
+        <v>647948.6771699999</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>742058.0423999999</v>
+        <v>755506.6145999999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>769760.4313699999</v>
+        <v>755207.28027</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>781178.5884499999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>787465.9536499999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>952244.272</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>57185.64247</v>
+        <v>53511.31483</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>60273.09345</v>
+        <v>56481.92416000001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>79979.69371000001</v>
+        <v>76516.65457</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>103704.95014</v>
+        <v>103051.01377</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>177970.5446</v>
+        <v>168485.90426</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>290247.31148</v>
+        <v>281258.2752</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>365715.90495</v>
+        <v>357127.93112</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>469683.72544</v>
+        <v>452868.18124</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>552455.64887</v>
+        <v>536917.4104000001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>592945.21228</v>
+        <v>582805.9695</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>625344.00969</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>612577.05939</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>643802.664</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>32.08087</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>414.7051700000001</v>
+        <v>404.60726</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>268.58056</v>
+        <v>266.30226</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>1900.39827</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>5945.97247</v>
+        <v>5925.55167</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>2876.40732</v>
+        <v>2873.51516</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>4241.3319</v>
+        <v>7120.84921</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>6734.64375</v>
+        <v>6553.77077</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>10037.29425</v>
+        <v>10262.20085</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>14054.12838</v>
+        <v>14053.48601</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>11969.70104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>11959.74294</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>9373.206</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>6399.79952</v>
+        <v>5381.000209999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>6673.4838</v>
+        <v>5708.08075</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>11700.35695</v>
+        <v>10683.97568</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>10800.66221</v>
+        <v>10034.12925</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>21088.8463</v>
+        <v>20136.78685</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>33126.33055</v>
+        <v>33754.59197</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>43505.46961</v>
+        <v>41181.74623999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>65239.57511999999</v>
+        <v>63417.44807</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>75413.7306</v>
+        <v>73353.86668000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>73509.71484</v>
+        <v>71532.83500000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>86494.40745999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>82900.2827</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>101954.06</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>50753.76208</v>
+        <v>48098.23375000001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>53184.90448</v>
+        <v>50369.23615</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>68010.7562</v>
+        <v>65566.37663</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>91003.88966</v>
+        <v>91116.48625000002</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>150935.72583</v>
+        <v>142423.56574</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>254244.57361</v>
+        <v>244630.16807</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>317969.10344</v>
+        <v>308825.33567</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>397709.50657</v>
+        <v>382896.9624</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>467004.62402</v>
+        <v>453301.34287</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>505381.3690599999</v>
+        <v>497219.64849</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>526879.9011899999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>517717.03375</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>532475.398</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>16490.24739</v>
+        <v>10820.92575</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>16736.62319</v>
+        <v>18292.17295</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>27942.90538</v>
+        <v>27360.71877</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>38084.0367</v>
+        <v>34431.87522</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>68359.30647</v>
+        <v>68764.47694999998</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>134695.40549</v>
+        <v>134295.68124</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>151631.63286</v>
+        <v>156135.63172</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>188130.56005</v>
+        <v>195080.49593</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>189602.39353</v>
+        <v>218589.2042</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>176815.21909</v>
+        <v>172401.31077</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>155834.57876</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>174888.89426</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>308441.608</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>5714.131209999999</v>
+        <v>7915.70746</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>35726.26719999999</v>
+        <v>37215.63348</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>8111.63276</v>
+        <v>11430.46084</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>7034.72592</v>
+        <v>8519.9154</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>12203.78005</v>
+        <v>19157.02113</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>14041.27643</v>
+        <v>20001.10056</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>25458.13856</v>
+        <v>23934.0684</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>33969.00898000001</v>
+        <v>31370.23946</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>40343.11007</v>
+        <v>56197.11242</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>138043.98276</v>
+        <v>139311.0988</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>63406.92737</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>58956.30351000001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>117360.352</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>0.28726</v>
+        <v>0</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>22.22113</v>
@@ -1787,28 +1798,33 @@
         <v>0</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>96.09521000000001</v>
+        <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1563.67562</v>
+        <v>156.36401</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>2085.62144</v>
+        <v>82.21466000000001</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>3116.06307</v>
+        <v>162.24911</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>3664.2616</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>909.44881</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>0.84801</v>
+        <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>0</v>
@@ -1817,10 +1833,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>383.12978</v>
+        <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>659.05535</v>
+        <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>0</v>
@@ -1829,61 +1845,71 @@
         <v>22.99667</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>193.62136</v>
+        <v>0</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>1.30491</v>
+        <v>2510.83968</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>296.62651</v>
+        <v>8008.37651</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>39.05</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1071.4886</v>
+        <v>1349.14298</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>960.40971</v>
+        <v>1166.17113</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>898.23514</v>
+        <v>897.8636500000001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>2154.72809</v>
+        <v>1929.9386</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>2377.11825</v>
+        <v>1926.07269</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>3340.01003</v>
+        <v>3725.35668</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>4541.75648</v>
+        <v>3906.03314</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>6740.06238</v>
+        <v>5824.41438</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>8302.445299999999</v>
+        <v>12525.03429</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>10577.9325</v>
+        <v>9804.20516</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>11931.81238</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>10674.47111</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>12660.937</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>14.74498</v>
@@ -1892,7 +1918,7 @@
         <v>32.84349</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>113.31183</v>
+        <v>41.28019</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>115.26628</v>
@@ -1904,25 +1930,30 @@
         <v>432.73606</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>398.49863</v>
+        <v>46.50532</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>250.69962</v>
+        <v>97.28917</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>546.3494400000001</v>
+        <v>14.16851</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>245.7517</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>413.97251</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>423.97251</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>684.971</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>23.52746</v>
@@ -1946,103 +1977,118 @@
         <v>167.87717</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>289.10492</v>
+        <v>292.42036</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>483.52951</v>
+        <v>494.10916</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>1423.37776</v>
+        <v>1192.34107</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>1224.76926</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1230.25033</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>3444.603</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>38.89677</v>
+        <v>36.57687</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>31.60306</v>
+        <v>29.72775</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>54.54506</v>
+        <v>50.81222</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>175.56282</v>
+        <v>167.09899</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>185.66359</v>
+        <v>176.34245</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>339.72728</v>
+        <v>320.28767</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>766.0567900000001</v>
+        <v>795.3706099999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>391.10703</v>
+        <v>209.17481</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1613.83073</v>
+        <v>1443.7244</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>441.09375</v>
+        <v>305.22603</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>907.768</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>728.0073799999999</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>1126.381</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>3263.66454</v>
+        <v>4533.71344</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>3805.16105</v>
+        <v>4303.07511</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>4327.368810000001</v>
+        <v>6504.704379999999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>3004.5942</v>
+        <v>4316.124769999999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>7666.053699999999</v>
+        <v>11539.92535</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>7732.99945</v>
+        <v>12633.00948</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>17060.82547</v>
+        <v>16894.93178</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>18557.21212</v>
+        <v>20794.47855</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>19939.81782</v>
+        <v>32361.73897</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>112344.31749</v>
+        <v>111204.2193</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>34259.12336</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>35370.29031</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>84317.85799999999</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>60.50919</v>
+        <v>35.18252</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>0</v>
@@ -2063,22 +2109,27 @@
         <v>74.88907</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>159.05985</v>
+        <v>0.29145</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>116.26902</v>
+        <v>40.88661</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>37.91847</v>
+        <v>21.80561</v>
       </c>
       <c r="M33" s="48" t="n">
         <v>11.11501</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>269.464</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>1.3705</v>
@@ -2090,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>62.99495</v>
+        <v>0</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>0.58</v>
@@ -2102,151 +2153,171 @@
         <v>26.28237</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>39.03536</v>
+        <v>2.41564</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>38.11002</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>27.1944</v>
+        <v>35.15273</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>219.8483</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>219.537</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1238.7939</v>
+        <v>1921.44871</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>30618.27499</v>
+        <v>31405.8411</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2652.4349</v>
+        <v>3870.063380000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1107.31623</v>
+        <v>1960.35319</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1232.52706</v>
+        <v>5431.31854</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2070.59238</v>
+        <v>2764.49944</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2302.8607</v>
+        <v>1999.18227</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>5785.43072</v>
+        <v>3993.39109</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>7215.83188</v>
+        <v>6686.28612</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>9533.707109999999</v>
+        <v>8331.771580000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>10774.25695</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>9388.89975</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>14597.551</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>3698.89633</v>
+        <v>4685.971600000001</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>33598.52737</v>
+        <v>34022.59997</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>4862.00572</v>
+        <v>6865.360199999999</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>6907.29468</v>
+        <v>5903.843650000001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>7804.37126</v>
+        <v>10383.01378</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>9130.87839</v>
+        <v>17849.05416</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>17788.20108</v>
+        <v>19942.2784</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>17956.2979</v>
+        <v>18796.74809</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>23903.51673</v>
+        <v>43481.91268</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>95024.08944</v>
+        <v>84488.17581999999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>34973.68811</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>32507.58612</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>59898.038</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>126.8384</v>
+        <v>122.37946</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>62.26893</v>
+        <v>62.02593</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>115.17186</v>
+        <v>99.48572</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>231.47306</v>
+        <v>220.37626</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>235.99741</v>
+        <v>221.6534</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>546.16542</v>
+        <v>541.2702399999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>333.53562</v>
+        <v>300.31564</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>458.1155</v>
+        <v>448.89873</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>305.7055500000001</v>
+        <v>227.41503</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>126.49181</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>189.94068</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>160.07815</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>152.178</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>517.47303</v>
+        <v>482.30307</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>581.3231699999999</v>
+        <v>476.52385</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>141.27511</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1119.03806</v>
+        <v>1132.27414</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>1305.54975</v>
@@ -2255,40 +2326,45 @@
         <v>1046.10585</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>2979.99469</v>
+        <v>3034.69916</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>3364.46719</v>
+        <v>2834.1466</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>5536.079610000001</v>
+        <v>5368.66287</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>6246.14426</v>
+        <v>6239.71396</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>6111.51433</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>6162.219119999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>5012.978</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>33.3929</v>
+        <v>33.3321</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>7.192</v>
+        <v>6.7989</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>0.34864</v>
+        <v>0.50708</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>2.20612</v>
+        <v>1.21022</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>15.54278</v>
+        <v>3.01078</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>54.50799000000001</v>
@@ -2300,58 +2376,68 @@
         <v>0.7804500000000001</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>57.06703</v>
+        <v>2.43822</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>486.60153</v>
+        <v>7.54501</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>5.461690000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>4.92156</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>605.606</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2470.31177</v>
+        <v>3775.6808</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>3098.096610000001</v>
+        <v>3990.96453</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>3323.6641</v>
+        <v>5463.904130000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>5001.59854</v>
+        <v>4308.409060000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>5728.77696</v>
+        <v>8381.783810000001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>6557.83464</v>
+        <v>15199.28797</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>12651.03343</v>
+        <v>15484.95379</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>12786.14327</v>
+        <v>14347.36408</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>16023.75008</v>
+        <v>35007.51315999999</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>86795.51475</v>
+        <v>76949.31465</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>26343.2361</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>24437.63086</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>50724.065</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2375,22 +2461,27 @@
         <v>86.81305</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>139.74465</v>
+        <v>8.459149999999999</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>199.18524</v>
+        <v>21.80561</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>0.00379</v>
+        <v>0</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>5.33634</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>19.511</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>1.3705</v>
@@ -2425,134 +2516,154 @@
       <c r="M42" s="48" t="n">
         <v>411.47231</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>366.693</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>549.50973</v>
+        <v>270.90567</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>29849.64666</v>
+        <v>29486.28676</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1281.54601</v>
+        <v>1160.18816</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>552.9789000000001</v>
+        <v>241.57397</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>518.5043599999999</v>
+        <v>471.01604</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>883.75809</v>
+        <v>965.3757099999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1618.02804</v>
+        <v>916.70051</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1097.50445</v>
+        <v>1047.55669</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1589.45352</v>
+        <v>2661.80209</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>984.1458599999999</v>
+        <v>779.9229499999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1906.72666</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1325.92778</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3017.007</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>2940.70183</v>
+        <v>2633.63979</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>3023.14724</v>
+        <v>2650.28876</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>3231.348770000001</v>
+        <v>2710.34257</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>6264.813380000001</v>
+        <v>5918.62333</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>7799.33316</v>
+        <v>9645.6479</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>11436.44662</v>
+        <v>12713.93627</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>16365.83252</v>
+        <v>17386.24812</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>19572.27782</v>
+        <v>19936.85562</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>27128.33206</v>
+        <v>66224.41116</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>31326.97634</v>
+        <v>28709.36489</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>31327.78863</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>28562.54868</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>34797.307</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>2755.90863</v>
+        <v>2448.84659</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>2831.19487</v>
+        <v>2464.04449</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>3085.96351</v>
+        <v>2564.95731</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>6136.46536</v>
+        <v>5790.275310000001</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>7636.66164</v>
+        <v>9500.750249999999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>10948.61072</v>
+        <v>12267.85547</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>15758.94481</v>
+        <v>16953.07295</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>18831.71523</v>
+        <v>19490.09581</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>25748.93713</v>
+        <v>61520.53831</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>30310.43174</v>
+        <v>27692.82029</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>30086.00291</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>27442.03383</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>32517.953</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>184.7932</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>191.95237</v>
+        <v>186.24427</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>145.38526</v>
@@ -2561,112 +2672,127 @@
         <v>128.34802</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>162.67152</v>
+        <v>144.89765</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>487.8359</v>
+        <v>446.0808</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>606.88771</v>
+        <v>433.17517</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>740.56259</v>
+        <v>446.75981</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1379.39493</v>
+        <v>4703.872850000001</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>1016.5446</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1241.78572</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1120.51485</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2279.354</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>15564.78044</v>
+        <v>11417.02182</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>15841.21578</v>
+        <v>18834.9177</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>27961.18365</v>
+        <v>29215.47684</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>31946.65456</v>
+        <v>31129.32364</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>64959.3821</v>
+        <v>67892.8364</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>128169.35691</v>
+        <v>123733.79137</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>142935.73782</v>
+        <v>142741.1736</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>184570.99331</v>
+        <v>187717.13168</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>178913.65481</v>
+        <v>165079.99278</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>188508.13607</v>
+        <v>198514.86886</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>152940.02939</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>172775.06297</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>331106.615</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>3694.34904</v>
+        <v>3623.45722</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1689.10437</v>
+        <v>1632.41916</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>5564.57628</v>
+        <v>1712.03929</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3460.13167</v>
+        <v>3358.36854</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>3663.78091</v>
+        <v>3268.04311</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>7080.420440000001</v>
+        <v>15638.56044</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>13544.02328</v>
+        <v>17677.91273</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>11696.66354</v>
+        <v>12518.96136</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>19236.16537</v>
+        <v>60505.42314000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>20148.61411</v>
+        <v>15234.08603</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>26337.69392</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>23956.2763</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>30461.76</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>85.92708</v>
+        <v>70.53533999999999</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>38.03714</v>
@@ -2678,112 +2804,127 @@
         <v>31.52522</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>20.02205</v>
+        <v>17.11691</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>47.64961</v>
+        <v>58.96355000000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>250.90588</v>
+        <v>249.90588</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>51.86374000000001</v>
+        <v>56.0701</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>584.8810100000001</v>
+        <v>438.26383</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>143.71258</v>
+        <v>145.08482</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>90.51655000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>94.94185</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>179.34</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>3608.42196</v>
+        <v>3552.92188</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1651.06723</v>
+        <v>1594.38202</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>5551.376179999999</v>
+        <v>1698.83919</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>3428.60645</v>
+        <v>3326.84332</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>3643.75886</v>
+        <v>3250.9262</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>7032.77083</v>
+        <v>15579.59689</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>13293.1174</v>
+        <v>17428.00685</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>11644.7998</v>
+        <v>12462.89126</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>18651.28436</v>
+        <v>60067.15931</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>20004.90153</v>
+        <v>15089.00121</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>26247.17737</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>23861.33444999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>30282.42</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>3766.32333</v>
+        <v>3337.5592</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>2294.08925</v>
+        <v>2014.82871</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>42861.45995</v>
+        <v>29942.20415</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>3891.1918</v>
+        <v>3658.628749999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>4604.72625</v>
+        <v>3697.96669</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>26973.16323</v>
+        <v>27309.01455</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>10837.82421</v>
+        <v>11778.95442</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>55472.67190000001</v>
+        <v>58198.65759999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>19494.70802</v>
+        <v>27066.8751</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>59428.16217</v>
+        <v>57485.75235</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>19158.66998</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>21308.8282</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>34795.124</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>0.46245</v>
+        <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>0</v>
@@ -2792,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>180.80353</v>
+        <v>180.36957</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>146.30567</v>
+        <v>0</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>53.63408</v>
@@ -2804,214 +2945,242 @@
         <v>55.4877</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>130.86903</v>
+        <v>126.70481</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>40.14999</v>
+        <v>34.35233</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>35.99386</v>
+        <v>30.71531</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2.08968</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1.98728</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>229.31824</v>
+        <v>215.19443</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>379.31491</v>
+        <v>379.35975</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>207.8883</v>
+        <v>191.83167</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>560.2709400000001</v>
+        <v>555.28413</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>346.04338</v>
+        <v>121.17213</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1731.56432</v>
+        <v>1731.1651</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1426.10366</v>
+        <v>1342.04711</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>1465.57007</v>
+        <v>1449.50444</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>383.99616</v>
+        <v>261.53514</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>238.32642</v>
+        <v>216.27707</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>557.06423</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>583.1246499999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1960.023</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>3536.54264</v>
+        <v>3122.36477</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1914.77434</v>
+        <v>1635.46896</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>42653.57165</v>
+        <v>29750.37248</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>3150.11733</v>
+        <v>2922.97505</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>4112.3772</v>
+        <v>3576.79456</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>25187.96483</v>
+        <v>25524.21537</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>9356.232850000002</v>
+        <v>10381.41961</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>53876.2328</v>
+        <v>56622.44834999999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>19070.56187</v>
+        <v>26770.98763</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>59153.84189</v>
+        <v>57238.75997</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>18599.51607</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>20723.71627</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>32835.101</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>15492.80615</v>
+        <v>11702.91984</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>15236.2309</v>
+        <v>18452.50815</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-9335.70002</v>
+        <v>985.3119799999995</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>31515.59443</v>
+        <v>30829.06343</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>64018.43676</v>
+        <v>67462.91282</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>108276.61412</v>
+        <v>112063.33726</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>145641.93689</v>
+        <v>148640.13191</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>140794.98495</v>
+        <v>142037.43544</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>178655.11216</v>
+        <v>198518.54082</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>149228.58801</v>
+        <v>156263.20254</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>160119.05333</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>175422.51107</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>326773.251</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>4636.877570000001</v>
+        <v>4306.56816</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>4103.35032</v>
+        <v>4280.351619999999</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>6127.796480000001</v>
+        <v>6070.17642</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>7477.31835</v>
+        <v>6661.586560000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>14153.44408</v>
+        <v>13861.63926</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>25076.4914</v>
+        <v>24547.03452</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>29173.61329</v>
+        <v>28447.60808</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>35891.3089</v>
+        <v>36540.19092999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>38941.68045</v>
+        <v>40404.08994</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>48413.7398</v>
+        <v>47678.09755</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>40226.18928</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>43174.11396</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>65730.697</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>10855.92858</v>
+        <v>7396.351680000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>11132.88058</v>
+        <v>14172.15653</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-15463.4965</v>
+        <v>-5084.864439999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>24038.27608</v>
+        <v>24167.47687</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>49864.99268</v>
+        <v>53601.27355999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>83200.12272</v>
+        <v>87516.30274000001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>116468.3236</v>
+        <v>120192.52383</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>104903.67605</v>
+        <v>105497.24451</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>139713.43171</v>
+        <v>158114.45088</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>100814.84821</v>
+        <v>108585.10499</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>119892.86405</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>132248.39711</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>261042.554</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>322</v>
+        <v>260</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>406</v>
+        <v>326</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>573</v>
+        <v>466</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>837</v>
+        <v>727</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1035</v>
+        <v>906</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1243</v>
+        <v>1061</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1470</v>
+        <v>1233</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1144</v>
+        <v>1073</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1077</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>